--- a/reports/Mozambique_1.1_trade_balance_2003-2023.xlsx
+++ b/reports/Mozambique_1.1_trade_balance_2003-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>M</t>
   </si>
@@ -34,10 +34,16 @@
     <t>trade_balance (X&lt;M-M)</t>
   </si>
   <si>
+    <t>trade_balance (X&lt;M-M&lt;X)</t>
+  </si>
+  <si>
     <t>trade_volume (X+M)</t>
   </si>
   <si>
     <t>trade_volume (X&lt;M+M)</t>
+  </si>
+  <si>
+    <t>trade_volume (X&lt;M+M&lt;X)</t>
   </si>
   <si>
     <t>varM_perc</t>
@@ -467,15 +473,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -507,10 +513,16 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>1752997456</v>
@@ -531,126 +543,150 @@
         <v>-659469328.7709999</v>
       </c>
       <c r="H2">
+        <v>-608841341.589</v>
+      </c>
+      <c r="I2">
         <v>2796909994</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>2846525583.229</v>
       </c>
-      <c r="J2">
-        <v>1.029739717557994</v>
-      </c>
       <c r="K2">
-        <v>0.9546279716144788</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>2795897596.047</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>2034671767</v>
       </c>
       <c r="C3">
-        <v>2198422555.86</v>
+        <v>2198506285.677</v>
       </c>
       <c r="D3">
         <v>1503846229</v>
       </c>
       <c r="E3">
-        <v>1675679627.007</v>
+        <v>1676851731.271</v>
       </c>
       <c r="F3">
         <v>-530825538</v>
       </c>
       <c r="G3">
-        <v>-358992139.993</v>
+        <v>-357820035.7290001</v>
       </c>
       <c r="H3">
+        <v>-521654554.4060001</v>
+      </c>
+      <c r="I3">
         <v>3538517996</v>
       </c>
-      <c r="I3">
-        <v>3710351394.007</v>
-      </c>
       <c r="J3">
-        <v>0.9255144155869787</v>
+        <v>3711523498.271</v>
       </c>
       <c r="K3">
-        <v>0.8974545042873627</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>3875358016.948</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>2408195310</v>
       </c>
       <c r="C4">
-        <v>2488098519.091</v>
+        <v>2488115730.105</v>
       </c>
       <c r="D4">
         <v>1745256187</v>
       </c>
       <c r="E4">
-        <v>2114118160.88</v>
+        <v>2114760461.083</v>
       </c>
       <c r="F4">
         <v>-662939123</v>
       </c>
       <c r="G4">
-        <v>-294077149.1199999</v>
+        <v>-293434848.9170001</v>
       </c>
       <c r="H4">
+        <v>-373355269.0220001</v>
+      </c>
+      <c r="I4">
         <v>4153451497</v>
       </c>
-      <c r="I4">
-        <v>4522313470.88</v>
-      </c>
       <c r="J4">
-        <v>0.9678858339097474</v>
+        <v>4522955771.083</v>
       </c>
       <c r="K4">
-        <v>0.8255244287166704</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>4602876191.188</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2869326549</v>
       </c>
       <c r="C5">
-        <v>2761093917.32</v>
+        <v>2761122522.564</v>
       </c>
       <c r="D5">
         <v>2381131616</v>
       </c>
       <c r="E5">
-        <v>2602516508.895</v>
+        <v>2603114796.424</v>
       </c>
       <c r="F5">
         <v>-488194933</v>
       </c>
       <c r="G5">
-        <v>-266810040.105</v>
+        <v>-266211752.5759997</v>
       </c>
       <c r="H5">
+        <v>-158007726.1399999</v>
+      </c>
+      <c r="I5">
         <v>5250458165</v>
       </c>
-      <c r="I5">
-        <v>5471843057.895</v>
-      </c>
       <c r="J5">
-        <v>1.039199185149433</v>
+        <v>5472441345.424</v>
       </c>
       <c r="K5">
-        <v>0.9149342983461044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>5364237318.988001</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>3049746128</v>
@@ -671,576 +707,678 @@
         <v>133915964.7030001</v>
       </c>
       <c r="H6">
+        <v>-525624772.276</v>
+      </c>
+      <c r="I6">
         <v>5461824757</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>6233408220.703</v>
       </c>
-      <c r="J6">
-        <v>0.8221920382578083</v>
-      </c>
       <c r="K6">
-        <v>0.7576427895813815</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>6892948957.682</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>4007763192</v>
       </c>
       <c r="C7">
-        <v>4312060755.77</v>
+        <v>4323369174.979</v>
       </c>
       <c r="D7">
         <v>2653259648</v>
       </c>
       <c r="E7">
-        <v>2829239772.04</v>
+        <v>2832457927.623</v>
       </c>
       <c r="F7">
         <v>-1354503544</v>
       </c>
       <c r="G7">
-        <v>-1178523419.96</v>
+        <v>-1175305264.377</v>
       </c>
       <c r="H7">
+        <v>-1490911247.356</v>
+      </c>
+      <c r="I7">
         <v>6661022840</v>
       </c>
-      <c r="I7">
-        <v>6837002964.04</v>
-      </c>
       <c r="J7">
-        <v>0.9294310583720747</v>
+        <v>6840221119.623</v>
       </c>
       <c r="K7">
-        <v>0.9377995015554617</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>7155827102.602</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>3764206586</v>
       </c>
       <c r="C8">
-        <v>4457595489.904</v>
+        <v>4456063348.638</v>
       </c>
       <c r="D8">
         <v>2147169453</v>
       </c>
       <c r="E8">
-        <v>2507343023.342</v>
+        <v>2507283755.037</v>
       </c>
       <c r="F8">
         <v>-1617037133</v>
       </c>
       <c r="G8">
-        <v>-1256863562.658</v>
+        <v>-1256922830.963</v>
       </c>
       <c r="H8">
+        <v>-1948779593.601001</v>
+      </c>
+      <c r="I8">
         <v>5911376039</v>
       </c>
-      <c r="I8">
-        <v>6271549609.342</v>
-      </c>
       <c r="J8">
-        <v>0.8444477733624651</v>
+        <v>6271490341.037</v>
       </c>
       <c r="K8">
-        <v>0.8563524946571012</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>6963347103.675</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>3564229509</v>
       </c>
       <c r="C9">
-        <v>5279766108.922</v>
+        <v>5279513515.801001</v>
       </c>
       <c r="D9">
         <v>2243068881</v>
       </c>
       <c r="E9">
-        <v>3013036987.576</v>
+        <v>3012998182.535</v>
       </c>
       <c r="F9">
         <v>-1321160628</v>
       </c>
       <c r="G9">
-        <v>-551192521.4240003</v>
+        <v>-551231326.4650002</v>
       </c>
       <c r="H9">
+        <v>-2266515333.266001</v>
+      </c>
+      <c r="I9">
         <v>5807298390</v>
       </c>
-      <c r="I9">
-        <v>6577266496.576</v>
-      </c>
       <c r="J9">
-        <v>0.6750733717118634</v>
+        <v>6577227691.535</v>
       </c>
       <c r="K9">
-        <v>0.7444544790684956</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>8292511698.336</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>6305647000</v>
       </c>
       <c r="C10">
-        <v>7217540689.765</v>
+        <v>7217084396.467</v>
       </c>
       <c r="D10">
         <v>3604118000</v>
       </c>
       <c r="E10">
-        <v>3803715680.025</v>
+        <v>3801998090.048</v>
       </c>
       <c r="F10">
         <v>-2701529000</v>
       </c>
       <c r="G10">
-        <v>-2501931319.975</v>
+        <v>-2503648909.952</v>
       </c>
       <c r="H10">
+        <v>-3415086306.419</v>
+      </c>
+      <c r="I10">
         <v>9909765000</v>
       </c>
-      <c r="I10">
-        <v>10109362680.025</v>
-      </c>
       <c r="J10">
-        <v>0.8736558990158334</v>
+        <v>10107645090.048</v>
       </c>
       <c r="K10">
-        <v>0.9475256047466492</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>11019082486.515</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>6177209677</v>
       </c>
       <c r="C11">
-        <v>7888377843.325</v>
+        <v>7888580656.667</v>
       </c>
       <c r="D11">
         <v>3469851707</v>
       </c>
       <c r="E11">
-        <v>4585973104.715</v>
+        <v>4585973065.409</v>
       </c>
       <c r="F11">
         <v>-2707357970</v>
       </c>
       <c r="G11">
-        <v>-1591236572.285</v>
+        <v>-1591236611.591</v>
       </c>
       <c r="H11">
+        <v>-3302607591.257999</v>
+      </c>
+      <c r="I11">
         <v>9647061384</v>
       </c>
-      <c r="I11">
-        <v>10763182781.715</v>
-      </c>
       <c r="J11">
-        <v>0.7830773068542909</v>
+        <v>10763182742.409</v>
       </c>
       <c r="K11">
-        <v>0.756622777275454</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>12474553722.076</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12">
         <v>10099147182</v>
       </c>
       <c r="C12">
-        <v>10220023692.068</v>
+        <v>10220052901.509</v>
       </c>
       <c r="D12">
         <v>4023718958</v>
       </c>
       <c r="E12">
-        <v>5221442959.455</v>
+        <v>5221442965.535</v>
       </c>
       <c r="F12">
         <v>-6075428224</v>
       </c>
       <c r="G12">
-        <v>-4877704222.545</v>
+        <v>-4877704216.465</v>
       </c>
       <c r="H12">
+        <v>-4998609935.973999</v>
+      </c>
+      <c r="I12">
         <v>14122866140</v>
       </c>
-      <c r="I12">
-        <v>15320590141.455</v>
-      </c>
       <c r="J12">
-        <v>0.9881725802493184</v>
+        <v>15320590147.535</v>
       </c>
       <c r="K12">
-        <v>0.7706143664202711</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>15441495867.044</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13">
         <v>8743074259</v>
       </c>
       <c r="C13">
-        <v>12203761974.642</v>
+        <v>12203761721.014</v>
       </c>
       <c r="D13">
         <v>4725331362</v>
       </c>
       <c r="E13">
-        <v>6067266194.372</v>
+        <v>6067266099.637</v>
       </c>
       <c r="F13">
         <v>-4017742897</v>
       </c>
       <c r="G13">
-        <v>-2675808064.628</v>
+        <v>-2675808159.363</v>
       </c>
       <c r="H13">
+        <v>-6136495621.377</v>
+      </c>
+      <c r="I13">
         <v>13468405621</v>
       </c>
-      <c r="I13">
-        <v>14810340453.372</v>
-      </c>
       <c r="J13">
-        <v>0.7164245154213178</v>
+        <v>14810340358.637</v>
       </c>
       <c r="K13">
-        <v>0.7788238080576093</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>18271027820.651</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14">
         <v>7907621609.04</v>
       </c>
       <c r="C14">
-        <v>9596446990.778999</v>
+        <v>9596383219.414</v>
       </c>
       <c r="D14">
         <v>3230743671.51</v>
       </c>
       <c r="E14">
-        <v>4358721096.905</v>
+        <v>4358680081.999</v>
       </c>
       <c r="F14">
         <v>-4676877937.53</v>
       </c>
       <c r="G14">
-        <v>-3548900512.135</v>
+        <v>-3548941527.041</v>
       </c>
       <c r="H14">
+        <v>-5237703137.415</v>
+      </c>
+      <c r="I14">
         <v>11138365280.55</v>
       </c>
-      <c r="I14">
-        <v>12266342705.945</v>
-      </c>
       <c r="J14">
-        <v>0.8240155566574012</v>
+        <v>12266301691.039</v>
       </c>
       <c r="K14">
-        <v>0.7412136724701327</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>13955063301.413</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15">
         <v>5295312574.14</v>
       </c>
       <c r="C15">
-        <v>7392838061.028</v>
+        <v>7392820833.69</v>
       </c>
       <c r="D15">
         <v>3352109244.85</v>
       </c>
       <c r="E15">
-        <v>4347397137.84</v>
+        <v>4347394024.116</v>
       </c>
       <c r="F15">
         <v>-1943203329.29</v>
       </c>
       <c r="G15">
-        <v>-947915436.3000002</v>
+        <v>-947918550.0240002</v>
       </c>
       <c r="H15">
+        <v>-3045426809.573999</v>
+      </c>
+      <c r="I15">
         <v>8647421818.99</v>
       </c>
-      <c r="I15">
-        <v>9642709711.98</v>
-      </c>
       <c r="J15">
-        <v>0.7162760134101556</v>
+        <v>9642706598.256001</v>
       </c>
       <c r="K15">
-        <v>0.7710611979000134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>11740214857.806</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16">
         <v>5741355863.332</v>
       </c>
       <c r="C16">
-        <v>8641551596.684</v>
+        <v>8648072250.205999</v>
       </c>
       <c r="D16">
         <v>4754835920.613</v>
       </c>
       <c r="E16">
-        <v>6034368304.159</v>
+        <v>6034760916.834</v>
       </c>
       <c r="F16">
         <v>-986519942.7189999</v>
       </c>
       <c r="G16">
-        <v>293012440.8270006</v>
+        <v>293405053.5019999</v>
       </c>
       <c r="H16">
+        <v>-2613311333.372</v>
+      </c>
+      <c r="I16">
         <v>10496191783.945</v>
       </c>
-      <c r="I16">
-        <v>11775724167.491</v>
-      </c>
       <c r="J16">
-        <v>0.6643894674580333</v>
+        <v>11776116780.166</v>
       </c>
       <c r="K16">
-        <v>0.7879591832894717</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>14682833167.04</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>7729704927.096</v>
       </c>
       <c r="C17">
-        <v>9952937078.665001</v>
+        <v>9956036065.577999</v>
       </c>
       <c r="D17">
         <v>6036569691.106</v>
       </c>
       <c r="E17">
-        <v>6715841271.901</v>
+        <v>6715339288.66</v>
       </c>
       <c r="F17">
         <v>-1693135235.99</v>
       </c>
       <c r="G17">
-        <v>-1013863655.195</v>
+        <v>-1014365638.436</v>
       </c>
       <c r="H17">
+        <v>-3240696776.917999</v>
+      </c>
+      <c r="I17">
         <v>13766274618.202</v>
       </c>
-      <c r="I17">
-        <v>14445546198.997</v>
-      </c>
       <c r="J17">
-        <v>0.7766255192816706</v>
+        <v>14445044215.756</v>
       </c>
       <c r="K17">
-        <v>0.898855325298252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>16671375354.238</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18">
         <v>7698925389.732</v>
       </c>
       <c r="C18">
-        <v>12314743420.76</v>
+        <v>12320047765.388</v>
       </c>
       <c r="D18">
         <v>4786746249.567</v>
       </c>
       <c r="E18">
-        <v>6129923812.518</v>
+        <v>6133829428.767</v>
       </c>
       <c r="F18">
         <v>-2912179140.165</v>
       </c>
       <c r="G18">
-        <v>-1569001577.214001</v>
+        <v>-1565095960.965</v>
       </c>
       <c r="H18">
+        <v>-6186218336.621</v>
+      </c>
+      <c r="I18">
         <v>12485671639.299</v>
       </c>
-      <c r="I18">
-        <v>13828849202.25</v>
-      </c>
       <c r="J18">
-        <v>0.6251795207323015</v>
+        <v>13832754818.499</v>
       </c>
       <c r="K18">
-        <v>0.7808818504060233</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>18453877194.155</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>6514086230.476</v>
       </c>
       <c r="C19">
-        <v>10987532748.481</v>
+        <v>10994095826.719</v>
       </c>
       <c r="D19">
         <v>3719930900.453</v>
       </c>
       <c r="E19">
-        <v>4924848006.049</v>
+        <v>4924915357.245</v>
       </c>
       <c r="F19">
         <v>-2794155330.023</v>
       </c>
       <c r="G19">
-        <v>-1589238224.427</v>
+        <v>-1589170873.231</v>
       </c>
       <c r="H19">
+        <v>-6069180469.474</v>
+      </c>
+      <c r="I19">
         <v>10234017130.929</v>
       </c>
-      <c r="I19">
-        <v>11438934236.525</v>
-      </c>
       <c r="J19">
-        <v>0.5928615986493015</v>
+        <v>11439001587.721</v>
       </c>
       <c r="K19">
-        <v>0.7553392299384576</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>15919011183.964</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>8758084048.334999</v>
       </c>
       <c r="C20">
-        <v>17358547215.396</v>
+        <v>17229758470.509</v>
       </c>
       <c r="D20">
         <v>5704483311.693</v>
       </c>
       <c r="E20">
-        <v>7350487708.467999</v>
+        <v>7350848414.17</v>
       </c>
       <c r="F20">
         <v>-3053600736.641999</v>
       </c>
       <c r="G20">
-        <v>-1407596339.867</v>
+        <v>-1407235634.164999</v>
       </c>
       <c r="H20">
+        <v>-9878910056.338999</v>
+      </c>
+      <c r="I20">
         <v>14462567360.028</v>
       </c>
-      <c r="I20">
-        <v>16108571756.803</v>
-      </c>
       <c r="J20">
-        <v>0.5045401518721048</v>
+        <v>16108932462.505</v>
       </c>
       <c r="K20">
-        <v>0.7760686825067744</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>24580606884.679</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>14670984876.563</v>
       </c>
       <c r="C21">
-        <v>17672072533.445</v>
+        <v>18143672865.771</v>
       </c>
       <c r="D21">
         <v>8298873676.929</v>
       </c>
       <c r="E21">
-        <v>11222033920.898</v>
+        <v>11324136923.846</v>
       </c>
       <c r="F21">
         <v>-6372111199.634</v>
       </c>
       <c r="G21">
-        <v>-3448950955.665001</v>
+        <v>-3346847952.716999</v>
       </c>
       <c r="H21">
+        <v>-6819535941.924999</v>
+      </c>
+      <c r="I21">
         <v>22969858553.492</v>
       </c>
-      <c r="I21">
-        <v>25893018797.461</v>
-      </c>
       <c r="J21">
-        <v>0.8301790776830312</v>
+        <v>25995121800.409</v>
       </c>
       <c r="K21">
-        <v>0.7395160035539187</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>29467809789.617</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22">
         <v>10091853000</v>
       </c>
       <c r="C22">
-        <v>15205986472.701</v>
+        <v>18698351917.79</v>
       </c>
       <c r="D22">
         <v>8275973000</v>
       </c>
       <c r="E22">
-        <v>7821115192.938</v>
+        <v>10759259965.614</v>
       </c>
       <c r="F22">
         <v>-1815880000</v>
       </c>
       <c r="G22">
-        <v>-2270737807.062</v>
+        <v>667406965.6140003</v>
       </c>
       <c r="H22">
+        <v>-7939091952.175997</v>
+      </c>
+      <c r="I22">
         <v>18367826000</v>
       </c>
-      <c r="I22">
-        <v>17912968192.938</v>
-      </c>
       <c r="J22">
-        <v>0.6636763105187354</v>
+        <v>20851112965.614</v>
       </c>
       <c r="K22">
-        <v>1.058157666245948</v>
+        <v>29457611883.404</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
